--- a/testing report/testing abacor.xlsx
+++ b/testing report/testing abacor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abacorbsas\testing report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F83D90-6F13-4378-972D-DB676276D6CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,19 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>FALLA DETECTADA</t>
-  </si>
-  <si>
-    <t>Informe de Testing</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>NumeroTarea</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Padding container</t>
+  </si>
+  <si>
+    <t>Ezequiel</t>
+  </si>
+  <si>
+    <t>Sin realizar</t>
+  </si>
+  <si>
+    <t>#2</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PROYECTO: </t>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proyecto:</t>
     </r>
     <r>
       <rPr>
@@ -46,17 +77,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Abacor BsAs</t>
+      <t xml:space="preserve"> AbacorBSAS</t>
     </r>
   </si>
   <si>
-    <t>desborde de texto en artículos de productos en botón y descripción</t>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tester:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Matias</t>
+    </r>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Al hacer click, scroll arriba</t>
+  </si>
+  <si>
+    <t>ProductosComponent.ts/html</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>Padding usos mobil</t>
+  </si>
+  <si>
+    <t>CaracteristicasComponent.html</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>Formulario Contacto</t>
+  </si>
+  <si>
+    <t>ContactoComponent.html/ts</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Fotos productos en usos</t>
+  </si>
+  <si>
+    <t>DetalleProductos.ts/html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******* </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,6 +175,7 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,15 +183,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,15 +205,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,51 +631,620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43203</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43203</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43203</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43203</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13">
+        <v>43203</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
